--- a/Project Design.xlsx
+++ b/Project Design.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSSP\study\stackathon\OutPut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSSP\study\stackathon\OutPut\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A4C08F-11E2-4360-A91D-1BE7FE80907C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5F2DD-11B9-4DF4-9BEE-2D7D094AFC19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="562" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Screenflow" sheetId="1" r:id="rId1"/>
     <sheet name="Git" sheetId="3" r:id="rId2"/>
-    <sheet name="Software Structure" sheetId="2" r:id="rId3"/>
+    <sheet name="back end" sheetId="4" r:id="rId3"/>
+    <sheet name="Software Structure" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -301,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -552,21 +553,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +578,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2359,6 +2360,55 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
+      <xdr:colOff>84620</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>84398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073DCB1F-3C4A-4A48-9BAB-2A4252BC0D6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="9228620" cy="6668078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>122723</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46168</xdr:rowOff>
@@ -2662,7 +2712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BB185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2685,15 +2735,15 @@
       </c>
     </row>
     <row r="3" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="U3" s="15"/>
-      <c r="AL3" s="17" t="s">
+      <c r="AL3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="AM3" s="15"/>
@@ -2806,13 +2856,13 @@
     </row>
     <row r="6" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -2820,11 +2870,11 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
       <c r="T6" s="5"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
@@ -2832,11 +2882,11 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="7"/>
       <c r="AL6" s="5"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6"/>
       <c r="AY6" s="6"/>
@@ -2846,11 +2896,11 @@
     </row>
     <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -2858,11 +2908,11 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
       <c r="T7" s="5"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
@@ -2870,11 +2920,11 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="7"/>
       <c r="AL7" s="5"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
       <c r="AY7" s="6"/>
@@ -3226,7 +3276,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="19" t="s">
         <v>12</v>
       </c>
       <c r="M15" s="6"/>
@@ -3491,7 +3541,7 @@
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="15"/>
@@ -3557,29 +3607,29 @@
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18" t="s">
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18" t="s">
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -3854,11 +3904,11 @@
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="15"/>
-      <c r="T48" s="17" t="s">
+      <c r="T48" s="16" t="s">
         <v>23</v>
       </c>
       <c r="U48" s="15"/>
@@ -3977,54 +4027,54 @@
     </row>
     <row r="52" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18" t="s">
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18" t="s">
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18" t="s">
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
       <c r="R52" s="7"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="22" t="s">
+      <c r="U52" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18" t="s">
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="18" t="s">
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AC52" s="18"/>
-      <c r="AD52" s="18"/>
-      <c r="AE52" s="18"/>
-      <c r="AF52" s="18" t="s">
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="17"/>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AG52" s="18"/>
-      <c r="AH52" s="18"/>
-      <c r="AI52" s="18"/>
+      <c r="AG52" s="17"/>
+      <c r="AH52" s="17"/>
+      <c r="AI52" s="17"/>
       <c r="AJ52" s="7"/>
     </row>
     <row r="53" spans="2:36" x14ac:dyDescent="0.3">
@@ -4295,7 +4345,7 @@
     </row>
     <row r="60" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="6"/>
@@ -4424,22 +4474,22 @@
       </c>
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
-      <c r="X63" s="20">
+      <c r="X63" s="31">
         <v>43904</v>
       </c>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="20"/>
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="6" t="s">
         <v>31</v>
       </c>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
-      <c r="AE63" s="20">
+      <c r="AE63" s="31">
         <v>43935</v>
       </c>
-      <c r="AF63" s="20"/>
-      <c r="AG63" s="20"/>
+      <c r="AF63" s="31"/>
+      <c r="AG63" s="31"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="7"/>
@@ -4630,7 +4680,7 @@
       </c>
     </row>
     <row r="72" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="15"/>
@@ -4696,29 +4746,29 @@
     </row>
     <row r="76" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="22" t="s">
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18" t="s">
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18" t="s">
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
       <c r="R76" s="7"/>
     </row>
     <row r="77" spans="2:36" x14ac:dyDescent="0.3">
@@ -4819,7 +4869,7 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
-      <c r="P81" s="18" t="s">
+      <c r="P81" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q81" s="7"/>
@@ -4903,7 +4953,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
-      <c r="P85" s="18" t="s">
+      <c r="P85" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q85" s="7"/>
@@ -5065,11 +5115,11 @@
       <c r="R93" s="10"/>
     </row>
     <row r="95" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="15"/>
-      <c r="T95" s="17" t="s">
+      <c r="T95" s="16" t="s">
         <v>76</v>
       </c>
       <c r="U95" s="15"/>
@@ -5188,54 +5238,54 @@
     </row>
     <row r="99" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B99" s="11"/>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="22" t="s">
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18" t="s">
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18" t="s">
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
       <c r="R99" s="7"/>
       <c r="T99" s="11"/>
-      <c r="U99" s="18" t="s">
+      <c r="U99" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="22" t="s">
+      <c r="V99" s="17"/>
+      <c r="W99" s="17"/>
+      <c r="X99" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Y99" s="18"/>
-      <c r="Z99" s="18"/>
-      <c r="AA99" s="18"/>
-      <c r="AB99" s="18" t="s">
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="17"/>
+      <c r="AB99" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AC99" s="18"/>
-      <c r="AD99" s="18"/>
-      <c r="AE99" s="18"/>
-      <c r="AF99" s="18" t="s">
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="17"/>
+      <c r="AE99" s="17"/>
+      <c r="AF99" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AG99" s="18"/>
-      <c r="AH99" s="18"/>
-      <c r="AI99" s="18"/>
+      <c r="AG99" s="17"/>
+      <c r="AH99" s="17"/>
+      <c r="AI99" s="17"/>
       <c r="AJ99" s="7"/>
     </row>
     <row r="100" spans="2:36" x14ac:dyDescent="0.3">
@@ -6114,7 +6164,7 @@
       </c>
     </row>
     <row r="126" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C126" s="15"/>
@@ -6180,29 +6230,29 @@
     </row>
     <row r="130" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B130" s="11"/>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18" t="s">
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18" t="s">
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="18"/>
-      <c r="N130" s="18" t="s">
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="O130" s="18"/>
-      <c r="P130" s="18"/>
-      <c r="Q130" s="18"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
       <c r="R130" s="7"/>
     </row>
     <row r="131" spans="2:36" x14ac:dyDescent="0.3">
@@ -6377,11 +6427,11 @@
       <c r="R139" s="10"/>
     </row>
     <row r="143" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C143" s="15"/>
-      <c r="T143" s="17" t="s">
+      <c r="T143" s="16" t="s">
         <v>59</v>
       </c>
       <c r="U143" s="15"/>
@@ -6500,54 +6550,54 @@
     </row>
     <row r="147" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B147" s="11"/>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18" t="s">
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18" t="s">
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="18" t="s">
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="O147" s="18"/>
-      <c r="P147" s="18"/>
-      <c r="Q147" s="18"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
       <c r="R147" s="7"/>
       <c r="T147" s="11"/>
-      <c r="U147" s="21" t="s">
+      <c r="U147" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="V147" s="18"/>
-      <c r="W147" s="18"/>
-      <c r="X147" s="18" t="s">
+      <c r="V147" s="17"/>
+      <c r="W147" s="17"/>
+      <c r="X147" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Y147" s="18"/>
-      <c r="Z147" s="18"/>
-      <c r="AA147" s="18"/>
-      <c r="AB147" s="18" t="s">
+      <c r="Y147" s="17"/>
+      <c r="Z147" s="17"/>
+      <c r="AA147" s="17"/>
+      <c r="AB147" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AC147" s="18"/>
-      <c r="AD147" s="18"/>
-      <c r="AE147" s="18"/>
-      <c r="AF147" s="18" t="s">
+      <c r="AC147" s="17"/>
+      <c r="AD147" s="17"/>
+      <c r="AE147" s="17"/>
+      <c r="AF147" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AG147" s="18"/>
-      <c r="AH147" s="18"/>
-      <c r="AI147" s="18"/>
+      <c r="AG147" s="17"/>
+      <c r="AH147" s="17"/>
+      <c r="AI147" s="17"/>
       <c r="AJ147" s="7"/>
     </row>
     <row r="148" spans="2:36" x14ac:dyDescent="0.3">
@@ -6717,11 +6767,11 @@
       </c>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
-      <c r="M152" s="23" t="s">
+      <c r="M152" s="21" t="s">
         <v>86</v>
       </c>
       <c r="O152" s="6"/>
-      <c r="P152" s="18" t="s">
+      <c r="P152" s="17" t="s">
         <v>57</v>
       </c>
       <c r="Q152" s="7"/>
@@ -6877,12 +6927,12 @@
       </c>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
-      <c r="M156" s="23" t="s">
+      <c r="M156" s="21" t="s">
         <v>86</v>
       </c>
       <c r="N156" s="6"/>
       <c r="O156" s="6"/>
-      <c r="P156" s="18" t="s">
+      <c r="P156" s="17" t="s">
         <v>57</v>
       </c>
       <c r="Q156" s="7"/>
@@ -6931,7 +6981,7 @@
       <c r="W157" s="6"/>
       <c r="X157" s="6"/>
       <c r="Y157" s="6"/>
-      <c r="Z157" s="23" t="s">
+      <c r="Z157" s="21" t="s">
         <v>60</v>
       </c>
       <c r="AA157" s="6"/>
@@ -7009,11 +7059,11 @@
       <c r="W159" s="6"/>
       <c r="X159" s="6"/>
       <c r="Y159" s="6"/>
-      <c r="Z159" s="20">
+      <c r="Z159" s="31">
         <v>43904</v>
       </c>
-      <c r="AA159" s="20"/>
-      <c r="AB159" s="20"/>
+      <c r="AA159" s="31"/>
+      <c r="AB159" s="31"/>
       <c r="AC159" s="6"/>
       <c r="AD159" s="6"/>
       <c r="AE159" s="6"/>
@@ -7217,11 +7267,11 @@
       </c>
     </row>
     <row r="167" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C167" s="15"/>
-      <c r="T167" s="17" t="s">
+      <c r="T167" s="16" t="s">
         <v>69</v>
       </c>
       <c r="U167" s="15"/>
@@ -7337,70 +7387,70 @@
       <c r="AH170" s="6"/>
       <c r="AI170" s="6"/>
       <c r="AJ170" s="7"/>
-      <c r="AK170" s="29"/>
-      <c r="AL170" s="29"/>
-      <c r="AM170" s="29"/>
-      <c r="AN170" s="29"/>
+      <c r="AK170" s="24"/>
+      <c r="AL170" s="24"/>
+      <c r="AM170" s="24"/>
+      <c r="AN170" s="24"/>
     </row>
     <row r="171" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B171" s="11"/>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="21" t="s">
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="18" t="s">
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="18" t="s">
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+      <c r="M171" s="17"/>
+      <c r="N171" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="O171" s="18"/>
-      <c r="P171" s="18"/>
-      <c r="Q171" s="18"/>
+      <c r="O171" s="17"/>
+      <c r="P171" s="17"/>
+      <c r="Q171" s="17"/>
       <c r="R171" s="7"/>
       <c r="T171" s="11"/>
-      <c r="U171" s="18" t="s">
+      <c r="U171" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="V171" s="18"/>
-      <c r="W171" s="18"/>
-      <c r="X171" s="21" t="s">
+      <c r="V171" s="17"/>
+      <c r="W171" s="17"/>
+      <c r="X171" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Y171" s="18"/>
-      <c r="Z171" s="18"/>
-      <c r="AA171" s="18"/>
-      <c r="AB171" s="18" t="s">
+      <c r="Y171" s="17"/>
+      <c r="Z171" s="17"/>
+      <c r="AA171" s="17"/>
+      <c r="AB171" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AC171" s="18"/>
-      <c r="AD171" s="18"/>
-      <c r="AE171" s="18"/>
-      <c r="AF171" s="18" t="s">
+      <c r="AC171" s="17"/>
+      <c r="AD171" s="17"/>
+      <c r="AE171" s="17"/>
+      <c r="AF171" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AG171" s="18"/>
-      <c r="AH171" s="18"/>
-      <c r="AI171" s="18"/>
+      <c r="AG171" s="17"/>
+      <c r="AH171" s="17"/>
+      <c r="AI171" s="17"/>
       <c r="AJ171" s="7"/>
-      <c r="AK171" s="29"/>
-      <c r="AL171" s="29" t="s">
+      <c r="AK171" s="24"/>
+      <c r="AL171" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AM171" s="29" t="s">
+      <c r="AM171" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AN171" s="29"/>
+      <c r="AN171" s="24"/>
     </row>
     <row r="172" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
@@ -7437,14 +7487,14 @@
       <c r="AH172" s="6"/>
       <c r="AI172" s="6"/>
       <c r="AJ172" s="7"/>
-      <c r="AK172" s="29"/>
-      <c r="AL172" s="30">
+      <c r="AK172" s="24"/>
+      <c r="AL172" s="25">
         <v>43922</v>
       </c>
-      <c r="AM172" s="29">
+      <c r="AM172" s="24">
         <v>100</v>
       </c>
-      <c r="AN172" s="29"/>
+      <c r="AN172" s="24"/>
     </row>
     <row r="173" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
@@ -7481,14 +7531,14 @@
       <c r="AH173" s="6"/>
       <c r="AI173" s="6"/>
       <c r="AJ173" s="7"/>
-      <c r="AK173" s="29"/>
-      <c r="AL173" s="30">
+      <c r="AK173" s="24"/>
+      <c r="AL173" s="25">
         <v>43952</v>
       </c>
-      <c r="AM173" s="29">
+      <c r="AM173" s="24">
         <v>111</v>
       </c>
-      <c r="AN173" s="29"/>
+      <c r="AN173" s="24"/>
     </row>
     <row r="174" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
@@ -7524,14 +7574,14 @@
       <c r="AH174" s="6"/>
       <c r="AI174" s="6"/>
       <c r="AJ174" s="7"/>
-      <c r="AK174" s="29"/>
-      <c r="AL174" s="30">
+      <c r="AK174" s="24"/>
+      <c r="AL174" s="25">
         <v>43983</v>
       </c>
-      <c r="AM174" s="29">
+      <c r="AM174" s="24">
         <v>135</v>
       </c>
-      <c r="AN174" s="29"/>
+      <c r="AN174" s="24"/>
     </row>
     <row r="175" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
@@ -7572,14 +7622,14 @@
       <c r="AH175" s="6"/>
       <c r="AI175" s="6"/>
       <c r="AJ175" s="7"/>
-      <c r="AK175" s="29"/>
-      <c r="AL175" s="30">
+      <c r="AK175" s="24"/>
+      <c r="AL175" s="25">
         <v>44013</v>
       </c>
-      <c r="AM175" s="29">
+      <c r="AM175" s="24">
         <v>123</v>
       </c>
-      <c r="AN175" s="29"/>
+      <c r="AN175" s="24"/>
     </row>
     <row r="176" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
@@ -7616,7 +7666,7 @@
       <c r="AH176" s="6"/>
       <c r="AI176" s="6"/>
       <c r="AJ176" s="7"/>
-      <c r="AL176" s="28"/>
+      <c r="AL176" s="23"/>
     </row>
     <row r="177" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
@@ -7657,7 +7707,7 @@
       <c r="AH177" s="6"/>
       <c r="AI177" s="6"/>
       <c r="AJ177" s="7"/>
-      <c r="AL177" s="28"/>
+      <c r="AL177" s="23"/>
     </row>
     <row r="178" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
@@ -7698,7 +7748,7 @@
     <row r="179" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
-      <c r="D179" s="19" t="s">
+      <c r="D179" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E179" s="6"/>
@@ -7711,7 +7761,7 @@
       <c r="J179" s="14"/>
       <c r="K179" s="14"/>
       <c r="L179" s="14"/>
-      <c r="M179" s="24" t="s">
+      <c r="M179" s="22" t="s">
         <v>66</v>
       </c>
       <c r="N179" s="6"/>
@@ -7781,22 +7831,22 @@
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="25">
+      <c r="G181" s="28">
         <v>43904</v>
       </c>
-      <c r="H181" s="26"/>
-      <c r="I181" s="27"/>
+      <c r="H181" s="29"/>
+      <c r="I181" s="30"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
-      <c r="N181" s="25">
+      <c r="N181" s="28">
         <v>43935</v>
       </c>
-      <c r="O181" s="26"/>
-      <c r="P181" s="27"/>
+      <c r="O181" s="29"/>
+      <c r="P181" s="30"/>
       <c r="Q181" s="6"/>
       <c r="R181" s="7"/>
       <c r="T181" s="5"/>
@@ -7992,7 +8042,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8006,6 +8056,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED9B519-F1CD-424B-9415-7C15B431344E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DC7941-7967-44CD-AF39-0B4BFA203412}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Project Design.xlsx
+++ b/Project Design.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSSP\study\stackathon\OutPut\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5F2DD-11B9-4DF4-9BEE-2D7D094AFC19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA58BE1-32BB-4F3F-B1BC-9F5A4423D6C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="562" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="562" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Screenflow" sheetId="1" r:id="rId1"/>
     <sheet name="Git" sheetId="3" r:id="rId2"/>
     <sheet name="back end" sheetId="4" r:id="rId3"/>
-    <sheet name="Software Structure" sheetId="2" r:id="rId4"/>
+    <sheet name="Git structure" sheetId="5" r:id="rId4"/>
+    <sheet name="Software Structure" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2408,6 +2409,270 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213907</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA1AA81-90F8-4E6E-A576-9F7FE94EAFBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="6309907" cy="5364945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Speech Bubble: Rectangle with Corners Rounded 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76108A0-7FE4-4BB1-BD02-AD28763219C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1684020" y="2933700"/>
+          <a:ext cx="1394460" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62377"/>
+            <a:gd name="adj2" fmla="val 61725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>back end</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>microservice</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle with Corners Rounded 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAFDF0B-C5C6-464A-A487-C23B61AC6EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="3505200"/>
+          <a:ext cx="1394460" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -105000"/>
+            <a:gd name="adj2" fmla="val 34033"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>front end</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>angular pages</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle with Corners Rounded 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBCB7D3-2378-4D9F-812B-C5C3F76879F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3108960" y="4145280"/>
+          <a:ext cx="1394460" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -117568"/>
+            <a:gd name="adj2" fmla="val -29044"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>db establish script</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>122723</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -8059,7 +8324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED9B519-F1CD-424B-9415-7C15B431344E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8071,6 +8336,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B94AF9-0583-469A-9755-3584F38FF51F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DC7941-7967-44CD-AF39-0B4BFA203412}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Project Design.xlsx
+++ b/Project Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSSP\study\stackathon\OutPut\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA58BE1-32BB-4F3F-B1BC-9F5A4423D6C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63379F-FD17-4E16-9E1B-AF4C366B222B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="562" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2660,6 +2660,423 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396591</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>167972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325F1114-414C-4B3A-A876-E550E1815EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6400800"/>
+          <a:ext cx="4054191" cy="3825572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8C2817-5E5F-4B7F-8F3D-847A2321D742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="7711440"/>
+          <a:ext cx="1386840" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62377"/>
+            <a:gd name="adj2" fmla="val 61725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Eureka </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle with Corners Rounded 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337AD8EB-054C-4EA2-AC18-1F16162F2FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2164080" y="7292340"/>
+          <a:ext cx="1386840" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62377"/>
+            <a:gd name="adj2" fmla="val 61725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spring Cloud Config</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle with Corners Rounded 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCA779E-938E-4CBE-B42B-B5F07B8462D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958340" y="8084820"/>
+          <a:ext cx="1386840" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62377"/>
+            <a:gd name="adj2" fmla="val 61725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Zuul(API Gateway)  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle with Corners Rounded 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F65FD4A-397A-4358-82F9-4778026047EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="8404860"/>
+          <a:ext cx="2369820" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62377"/>
+            <a:gd name="adj2" fmla="val 61725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>customer company, stock  service</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle with Corners Rounded 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C31ECD3-0716-4C8C-9BFF-01E8268AAA5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="8801100"/>
+          <a:ext cx="1516380" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62377"/>
+            <a:gd name="adj2" fmla="val 61725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>customer user service</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8339,8 +8756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B94AF9-0583-469A-9755-3584F38FF51F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Project Design.xlsx
+++ b/Project Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSSP\study\stackathon\OutPut\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63379F-FD17-4E16-9E1B-AF4C366B222B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FF3BD-533B-4408-AAC8-B5059D75FF77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="562" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>Login Page</t>
   </si>
@@ -297,6 +297,12 @@
   <si>
     <t>https://github.com/superido/Stackathon.git</t>
   </si>
+  <si>
+    <t>CI/CD, Jenkinsfile, JMeter’s jmx file, Dockerfile</t>
+  </si>
+  <si>
+    <t>Milestone5</t>
+  </si>
 </sst>
 </file>
 
@@ -537,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -567,6 +573,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3077,6 +3084,281 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236822</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>53757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9728D6-78B4-4A3F-B370-54525F0E6B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12252960"/>
+          <a:ext cx="6942422" cy="4808637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle with Corners Rounded 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26A735A-E5BF-473F-999A-716D774DB627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2560320" y="14523720"/>
+          <a:ext cx="2369820" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62377"/>
+            <a:gd name="adj2" fmla="val 61725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Jmeter file</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Speech Bubble: Rectangle with Corners Rounded 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19FA898-3EC6-4D7C-9461-458478054044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1722120" y="14173200"/>
+          <a:ext cx="2369820" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62377"/>
+            <a:gd name="adj2" fmla="val 61725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Jenkins file</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Speech Bubble: Rectangle with Corners Rounded 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C7FAC2-E7DD-4ADA-8A2C-9F0269EF59A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368040" y="15156180"/>
+          <a:ext cx="2369820" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62377"/>
+            <a:gd name="adj2" fmla="val 61725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>docker file</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3538,13 +3820,13 @@
     </row>
     <row r="6" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -3552,11 +3834,11 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
       <c r="T6" s="5"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
@@ -3564,11 +3846,11 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="7"/>
       <c r="AL6" s="5"/>
-      <c r="AR6" s="27"/>
-      <c r="AS6" s="27"/>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="27"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6"/>
       <c r="AY6" s="6"/>
@@ -3578,11 +3860,11 @@
     </row>
     <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -3590,11 +3872,11 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
       <c r="T7" s="5"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
@@ -3602,11 +3884,11 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="7"/>
       <c r="AL7" s="5"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
       <c r="AY7" s="6"/>
@@ -5156,22 +5438,22 @@
       </c>
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
-      <c r="X63" s="31">
+      <c r="X63" s="32">
         <v>43904</v>
       </c>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="32"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="6" t="s">
         <v>31</v>
       </c>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
-      <c r="AE63" s="31">
+      <c r="AE63" s="32">
         <v>43935</v>
       </c>
-      <c r="AF63" s="31"/>
-      <c r="AG63" s="31"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="7"/>
@@ -7741,11 +8023,11 @@
       <c r="W159" s="6"/>
       <c r="X159" s="6"/>
       <c r="Y159" s="6"/>
-      <c r="Z159" s="31">
+      <c r="Z159" s="32">
         <v>43904</v>
       </c>
-      <c r="AA159" s="31"/>
-      <c r="AB159" s="31"/>
+      <c r="AA159" s="32"/>
+      <c r="AB159" s="32"/>
       <c r="AC159" s="6"/>
       <c r="AD159" s="6"/>
       <c r="AE159" s="6"/>
@@ -8513,22 +8795,22 @@
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="28">
+      <c r="G181" s="29">
         <v>43904</v>
       </c>
-      <c r="H181" s="29"/>
-      <c r="I181" s="30"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="31"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
-      <c r="N181" s="28">
+      <c r="N181" s="29">
         <v>43935</v>
       </c>
-      <c r="O181" s="29"/>
-      <c r="P181" s="30"/>
+      <c r="O181" s="30"/>
+      <c r="P181" s="31"/>
       <c r="Q181" s="6"/>
       <c r="R181" s="7"/>
       <c r="T181" s="5"/>
@@ -8754,14 +9036,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B94AF9-0583-469A-9755-3584F38FF51F}">
-  <dimension ref="A1"/>
+  <dimension ref="B61:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Project Design.xlsx
+++ b/Project Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSSP\study\stackathon\OutPut\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FF3BD-533B-4408-AAC8-B5059D75FF77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D16F507-20C4-4F8E-AD7E-A570AA1ADAE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="562" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" tabRatio="562" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Screenflow" sheetId="1" r:id="rId1"/>
@@ -3359,6 +3359,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>595362</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>53899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7082442-0D30-4E25-BD9D-59B605E29D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16642080"/>
+          <a:ext cx="11568162" cy="6454699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9038,8 +9082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B94AF9-0583-469A-9755-3584F38FF51F}">
   <dimension ref="B61:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="U100" sqref="U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
